--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
+          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/6', 'HMV23/000059/0923/5', 'HMV23/000043/0823/12', 'HMV23/000055/0923/2']</t>
+          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[3.0, 0.0, 2.0, 2.0]</t>
+          <t>[0.0, 3.0, 2.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/7', 'HMV23/000055/0923/12']</t>
+          <t>['HMV23/000055/0923/12', 'HMV23/000059/0923/7']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/14', 'HMV23/000059/0923/9', 'HMV23/000059/0923/8', 'HMV23/000055/0923/13']</t>
+          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8', 'HMV23/000055/0923/14']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.0, 7.0, 5.0, 5.0]</t>
+          <t>[7.0, 5.0, 5.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/10', 'HMV23/000055/0923/22']</t>
+          <t>['HMV23/000055/0923/22', 'HMV23/000059/0923/10']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[2.0, 4.0]</t>
+          <t>[4.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/23', 'HMV23/000059/0923/16']</t>
+          <t>['HMV23/000059/0923/16', 'HMV23/000055/0923/23']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#2, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#2, 108VU QTY#1, FWD CARGO DOOR QTY#1, AFT CARGO DOOR QTY#1, FWD LH PASSENGER DOOR QTY#1, RH WING FLAP TRACK FAIRING NO.2 QTY#1, RH WING FLAP TRACK FAIRING NO.3 QTY#1, LH WING FLAP TRACK FAIRING NO.1 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#2, LH ELEVATOR PANEL 334BB QTY#1, LH ELEVATOR PANEL 334HB QTY#1, RH ELEVATOR PANEL 344DB QTY#1, RH ELEVATOR PANEL 344BB QTY#1.', 'DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#1, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#1, LH ELEVATOR QTY#3, RH ELEVATOR QTY#1, RH WING BETWEEN SPOILER 3 AND 4 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#1, RH WING FLAP TRACK FAIRING NO.1 QTY#2.']</t>
+          <t>['DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#1, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#1, LH ELEVATOR QTY#3, RH ELEVATOR QTY#1, RH WING BETWEEN SPOILER 3 AND 4 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#1, RH WING FLAP TRACK FAIRING NO.1 QTY#2.', 'DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#2, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#2, 108VU QTY#1, FWD CARGO DOOR QTY#1, AFT CARGO DOOR QTY#1, FWD LH PASSENGER DOOR QTY#1, RH WING FLAP TRACK FAIRING NO.2 QTY#1, RH WING FLAP TRACK FAIRING NO.3 QTY#1, LH WING FLAP TRACK FAIRING NO.1 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#2, LH ELEVATOR PANEL 334BB QTY#1, LH ELEVATOR PANEL 334HB QTY#1, RH ELEVATOR PANEL 344DB QTY#1, RH ELEVATOR PANEL 344BB QTY#1.']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[24.0, 18.0]</t>
+          <t>[18.0, 24.0]</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/25', 'HMV23/000059/0923/17']</t>
+          <t>['HMV23/000059/0923/17', 'HMV23/000055/0923/25']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
+          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[8.0, 16.0]</t>
+          <t>[16.0, 8.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7', 'HMV23/000055/0923/8']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/7', 'HMV23/000055/0923/1', 'HMV23/000055/0923/9']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[2.0, 7.0, 7.0, 3.0]</t>
+          <t>[3.0, 7.0, 2.0, 7.0]</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/4', 'HMV23/000055/0923/3']</t>
+          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[4.0, 2.5, 2.0]</t>
+          <t>[4.0, 2.0, 2.5]</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/10', 'HMV23/000043/0823/7']</t>
+          <t>['HMV23/000043/0823/7', 'HMV23/000043/0823/10']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['POST REPAIR OF RH WING SLAT NO#2(P/N:D5746092000500, S/N: SA7202489)\n.SAME TO BE INSTALLED AS PER AMM 27-84-64-400-001-A, REV 72, DT-01AUG2023', 'REF TO IGO EO-4279 DENT ON RH WING SLAT #2 NOSE TOP SKIN. SAME TO BE REMOVED AS PER AMM 27-84-64-000-001-A ,REV 72,DT-01AUG23 FOR PERMANENT REPAIR\nP/N:D5746092000500, S/N:SA7202489.']</t>
+          <t>['REF TO IGO EO-4279 DENT ON RH WING SLAT #2 NOSE TOP SKIN. SAME TO BE REMOVED AS PER AMM 27-84-64-000-001-A ,REV 72,DT-01AUG23 FOR PERMANENT REPAIR\nP/N:D5746092000500, S/N:SA7202489.', 'POST REPAIR OF RH WING SLAT NO#2(P/N:D5746092000500, S/N: SA7202489)\n.SAME TO BE INSTALLED AS PER AMM 27-84-64-400-001-A, REV 72, DT-01AUG2023']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[16.0, 5.0]</t>
+          <t>[5.0, 16.0]</t>
         </is>
       </c>
     </row>

--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/3', 'HMV23/000055/0923/17']</t>
+          <t>['HMV23/000055/0923/17', 'HMV23/000059/0923/3']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[5.0, 7.0]</t>
+          <t>[7.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
+          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12']</t>
+          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.0, 3.0, 2.0, 2.0]</t>
+          <t>[0.0, 2.0, 2.0, 3.0]</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
+          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8', 'HMV23/000055/0923/14']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[7.0, 5.0, 5.0, 5.0]</t>
+          <t>[5.0, 5.0, 5.0, 7.0]</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
+          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
+          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[6.0, 5.0]</t>
+          <t>[5.0, 6.0]</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/16', 'HMV23/000055/0923/23']</t>
+          <t>['HMV23/000055/0923/23', 'HMV23/000059/0923/16']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#1, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#1, LH ELEVATOR QTY#3, RH ELEVATOR QTY#1, RH WING BETWEEN SPOILER 3 AND 4 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#1, RH WING FLAP TRACK FAIRING NO.1 QTY#2.', 'DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#2, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#2, 108VU QTY#1, FWD CARGO DOOR QTY#1, AFT CARGO DOOR QTY#1, FWD LH PASSENGER DOOR QTY#1, RH WING FLAP TRACK FAIRING NO.2 QTY#1, RH WING FLAP TRACK FAIRING NO.3 QTY#1, LH WING FLAP TRACK FAIRING NO.1 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#2, LH ELEVATOR PANEL 334BB QTY#1, LH ELEVATOR PANEL 334HB QTY#1, RH ELEVATOR PANEL 344DB QTY#1, RH ELEVATOR PANEL 344BB QTY#1.']</t>
+          <t>['DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#2, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#2, 108VU QTY#1, FWD CARGO DOOR QTY#1, AFT CARGO DOOR QTY#1, FWD LH PASSENGER DOOR QTY#1, RH WING FLAP TRACK FAIRING NO.2 QTY#1, RH WING FLAP TRACK FAIRING NO.3 QTY#1, LH WING FLAP TRACK FAIRING NO.1 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#2, LH ELEVATOR PANEL 334BB QTY#1, LH ELEVATOR PANEL 334HB QTY#1, RH ELEVATOR PANEL 344DB QTY#1, RH ELEVATOR PANEL 344BB QTY#1.', 'DURING WEAR LIMIT BONDING LEADS INSPECTION CHECK FOUND BONDING LEADS DAMAGED AT LOCATION TOILET SERVICE PANEL QTY#1, WATER SERVICE PANEL QTY#2, RH MLG DOOR QTY#1, LH MLG DOOR QTY#1, LH ELEVATOR QTY#3, RH ELEVATOR QTY#1, RH WING BETWEEN SPOILER 3 AND 4 QTY#2, LH WING FLAP TRACK FAIRING NO.3 QTY#1, RH WING FLAP TRACK FAIRING NO.1 QTY#2.']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[18.0, 24.0]</t>
+          <t>[24.0, 18.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/7', 'HMV23/000055/0923/1', 'HMV23/000055/0923/9']</t>
+          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9', 'HMV23/000055/0923/8']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[3.0, 7.0, 2.0, 7.0]</t>
+          <t>[2.0, 7.0, 7.0, 3.0]</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/3', 'HMV23/000055/0923/5']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[4.0, 2.0, 2.5]</t>
+          <t>[2.5, 2.0, 4.0]</t>
         </is>
       </c>
     </row>

--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
+          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
+          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9']</t>
+          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.0, 5.0, 5.0, 7.0]</t>
+          <t>[7.0, 5.0, 5.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/15', 'HMV23/000059/0923/11']</t>
+          <t>['HMV23/000059/0923/11', 'HMV23/000055/0923/15']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01']</t>
+          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[3.0, 4.0]</t>
+          <t>[4.0, 3.0]</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
+          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[3.0, 2.5]</t>
+          <t>[2.5, 3.0]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
+          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
+          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[5.0, 6.0]</t>
+          <t>[6.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9', 'HMV23/000055/0923/8']</t>
+          <t>['HMV23/000055/0923/7', 'HMV23/000055/0923/8', 'HMV23/000055/0923/9', 'HMV23/000055/0923/1']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[2.0, 7.0, 7.0, 3.0]</t>
+          <t>[7.0, 3.0, 7.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/3', 'HMV23/000055/0923/5']</t>
+          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[2.5, 2.0, 4.0]</t>
+          <t>[2.0, 4.0, 2.5]</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
+          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
+          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
+          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[10.0, 5.0]</t>
+          <t>[5.0, 10.0]</t>
         </is>
       </c>
     </row>

--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.0, 2.0, 2.0, 3.0]</t>
+          <t>[2.0, 0.0, 3.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
+          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[7.0, 5.0, 5.0, 5.0]</t>
+          <t>[5.0, 5.0, 7.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
+          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[2.5, 3.0]</t>
+          <t>[3.0, 2.5]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
+          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
+          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
+          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[6.0, 5.0]</t>
+          <t>[5.0, 6.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/7', 'HMV23/000055/0923/8', 'HMV23/000055/0923/9', 'HMV23/000055/0923/1']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[7.0, 3.0, 7.0, 2.0]</t>
+          <t>[3.0, 2.0, 7.0, 7.0]</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[2.0, 4.0, 2.5]</t>
+          <t>[4.0, 2.0, 2.5]</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
+          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
+          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
+          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[5.0, 10.0]</t>
+          <t>[10.0, 5.0]</t>
         </is>
       </c>
     </row>

--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000055/0923/6', 'HMV23/000059/0923/5', 'HMV23/000043/0823/12']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[2.0, 0.0, 3.0, 2.0]</t>
+          <t>[2.0, 3.0, 0.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.0, 5.0, 7.0, 5.0]</t>
+          <t>[5.0, 7.0, 5.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/22', 'HMV23/000059/0923/10']</t>
+          <t>['HMV23/000059/0923/10', 'HMV23/000055/0923/22']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[4.0, 2.0]</t>
+          <t>[2.0, 4.0]</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/11', 'HMV23/000055/0923/15']</t>
+          <t>['HMV23/000055/0923/15', 'HMV23/000059/0923/11']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE']</t>
+          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[4.0, 3.0]</t>
+          <t>[3.0, 4.0]</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
+          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/17', 'HMV23/000055/0923/25']</t>
+          <t>['HMV23/000055/0923/25', 'HMV23/000059/0923/17']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
+          <t>['DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 17 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 8 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.', 'DURING INSPECTION OF PAX SEATS FOLLOWING FINDINGS OBSERVED:-\n1. BAGGAGE BAR HARDWARES FOUND MISSING AT MULTIPLE LOCATIONS.\n2. SEAT BELTS QTY 12 FOUND FRAYED AND WORN OUT.\n3. ARM CAP QTY 1 FOUND DAMAGED.\n4. SEAT FLANK FAIRINGS AND SPREADER FAIRING FOUND DAMAGED AT MULTIPLE LOCATIONS.']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[16.0, 8.0]</t>
+          <t>[8.0, 16.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
+          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7', 'HMV23/000055/0923/8']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[3.0, 2.0, 7.0, 7.0]</t>
+          <t>[2.0, 7.0, 7.0, 3.0]</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
+          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/3', 'HMV23/000043/0823/5']</t>
+          <t>['HMV23/000043/0823/5', 'HMV23/000043/0823/3']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON FWD CARGO FLOOR PANELS 131AF,131EF,131FF,131JF.\n1)REMOVE FWD CARGO FLOOR PANEL 131AF,131EF,131FF,131JF FOR FABRICATION.\n2) INSTALL FLOOR PANEL 131AF,131EF,131FF,131JF POST FABRICATION.\n3) SEALS MISSING ON SOME FWD CARGO FLOOR PANELS.\n4) SEVERAL HARDWARE FOUND MISSING ON FWD CARGO SIDEWALL AND CEILING PANELS.', 'DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF.\n1)REMOVE AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF FOR FABRICATION.\n2) INSTALL AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF POST FABRICATION.\n3) SEVERAL HARDWARE FOUND MISSING ON AFT CARGO SIDEWALL AND CEILING PANELS.']</t>
+          <t>['DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF.\n1)REMOVE AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF FOR FABRICATION.\n2) INSTALL AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF POST FABRICATION.\n3) SEVERAL HARDWARE FOUND MISSING ON AFT CARGO SIDEWALL AND CEILING PANELS.', 'DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON FWD CARGO FLOOR PANELS 131AF,131EF,131FF,131JF.\n1)REMOVE FWD CARGO FLOOR PANEL 131AF,131EF,131FF,131JF FOR FABRICATION.\n2) INSTALL FLOOR PANEL 131AF,131EF,131FF,131JF POST FABRICATION.\n3) SEALS MISSING ON SOME FWD CARGO FLOOR PANELS.\n4) SEVERAL HARDWARE FOUND MISSING ON FWD CARGO SIDEWALL AND CEILING PANELS.']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
+          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
+          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[10.0, 5.0]</t>
+          <t>[5.0, 10.0]</t>
         </is>
       </c>
     </row>

--- a/FinalResults/flight_maintenance_description_result.xlsx
+++ b/FinalResults/flight_maintenance_description_result.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/17', 'HMV23/000059/0923/3']</t>
+          <t>['HMV23/000059/0923/3', 'HMV23/000055/0923/17']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION : \n1) LH HORZ STAB TYPE A DISCHARGER QTY# 2 &amp; TYPE B DISCHARGER QTY#3 \n2) RH HORZ STAB TYPE A DISCHARGER QTY#1 \n3)VERTICAL STABILISER TYPE A DISCHARGER QTY 01 &amp; TYPE B DISCHARGER QTY 02.', 'DURING ARRIVAL INSPECTION FOUND STATIC DISCHARGERS DAMAGED AT LOCATION LH WING TIP TRAILING EDGE TYPE B DISCHARGER QTY#1, RH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#1, LH HORZ STAB TYPE A DISCHARGER QTY#1 TYPE B DISCHARGER QTY#3, VERT STAB TYPE A DISCHARGER QTY#1, RUDDER TYPE B DISCHARGER QTY#1.']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[7.0, 5.0]</t>
+          <t>[5.0, 7.0]</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/2', 'HMV23/000055/0923/6', 'HMV23/000059/0923/5', 'HMV23/000043/0823/12']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6', 'HMV23/000059/0923/5']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[2.0, 3.0, 0.0, 2.0]</t>
+          <t>[2.0, 2.0, 3.0, 0.0]</t>
         </is>
       </c>
     </row>
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/12', 'HMV23/000059/0923/7']</t>
+          <t>['HMV23/000059/0923/7', 'HMV23/000055/0923/12']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800 \n\n151GF P/N D5367521100400 \n\n151DF P/N D5367521100200 \n\n151EF P/N D5367402100000', 'DURING INSPECTION FOUND FOLLOWING AFT CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED\n\n151LF P/N D5367521106800\n\n151GF P/N D5367521100400\n\n151DF P/N D5367521100200\n\n151EF P/N D5367402100000\n\n151QF P/N D5367403500000']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000059/0923/9', 'HMV23/000055/0923/13']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[5.0, 7.0, 5.0, 5.0]</t>
+          <t>[5.0, 5.0, 7.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/10', 'HMV23/000055/0923/22']</t>
+          <t>['HMV23/000055/0923/22', 'HMV23/000059/0923/10']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING OPP0RTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING', 'DURING OPPORTUNITY INSPECTION FOUND BELLY PANEL HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[2.0, 4.0]</t>
+          <t>[4.0, 2.0]</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
+          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[5.0, 6.0]</t>
+          <t>[6.0, 5.0]</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7', 'HMV23/000055/0923/8']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[2.0, 7.0, 7.0, 3.0]</t>
+          <t>[3.0, 2.0, 7.0, 7.0]</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[4.0, 2.0, 2.5]</t>
+          <t>[2.0, 4.0, 2.5]</t>
         </is>
       </c>
     </row>
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/5', 'HMV23/000043/0823/3']</t>
+          <t>['HMV23/000043/0823/3', 'HMV23/000043/0823/5']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF.\n1)REMOVE AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF FOR FABRICATION.\n2) INSTALL AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF POST FABRICATION.\n3) SEVERAL HARDWARE FOUND MISSING ON AFT CARGO SIDEWALL AND CEILING PANELS.', 'DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON FWD CARGO FLOOR PANELS 131AF,131EF,131FF,131JF.\n1)REMOVE FWD CARGO FLOOR PANEL 131AF,131EF,131FF,131JF FOR FABRICATION.\n2) INSTALL FLOOR PANEL 131AF,131EF,131FF,131JF POST FABRICATION.\n3) SEALS MISSING ON SOME FWD CARGO FLOOR PANELS.\n4) SEVERAL HARDWARE FOUND MISSING ON FWD CARGO SIDEWALL AND CEILING PANELS.']</t>
+          <t>['DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON FWD CARGO FLOOR PANELS 131AF,131EF,131FF,131JF.\n1)REMOVE FWD CARGO FLOOR PANEL 131AF,131EF,131FF,131JF FOR FABRICATION.\n2) INSTALL FLOOR PANEL 131AF,131EF,131FF,131JF POST FABRICATION.\n3) SEALS MISSING ON SOME FWD CARGO FLOOR PANELS.\n4) SEVERAL HARDWARE FOUND MISSING ON FWD CARGO SIDEWALL AND CEILING PANELS.', 'DURING ARRIVAL INSPECTION OBSERVED DELAMINATION ON AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF.\n1)REMOVE AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF FOR FABRICATION.\n2) INSTALL AFT CARGO FLOOR PANELS 151SG,151DF,151GF, 51LF, 151PF POST FABRICATION.\n3) SEVERAL HARDWARE FOUND MISSING ON AFT CARGO SIDEWALL AND CEILING PANELS.']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
